--- a/escolas/jose pavan/8B.xlsx
+++ b/escolas/jose pavan/8B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\jose pavan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\actteensprogram-automacao\escolas\jose pavan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C69A7A-81AC-4251-8EAA-DD75535F5D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B72977-5D47-4472-AACC-C1E250DEBAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2940" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Aluno</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Wesley de Souza Soares</t>
+  </si>
+  <si>
+    <t>Antonio ADM</t>
+  </si>
+  <si>
+    <t>Pedro ADM</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,6 +760,28 @@
         <v>5543996964001</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6">
+        <v>554384356465</v>
+      </c>
+      <c r="C32" s="6">
+        <v>554384356465</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5543996440402</v>
+      </c>
+      <c r="C33" s="6">
+        <v>5543996440402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
